--- a/Code/Results/Cases/Case_0_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_188/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.388845100513912</v>
+        <v>6.962736285065886</v>
       </c>
       <c r="D2">
-        <v>4.941195403965874</v>
+        <v>8.333005155668802</v>
       </c>
       <c r="E2">
-        <v>6.537128500808112</v>
+        <v>10.89460059637521</v>
       </c>
       <c r="F2">
-        <v>34.27716032911549</v>
+        <v>41.54024229733263</v>
       </c>
       <c r="G2">
-        <v>2.10115449581459</v>
+        <v>3.730130508428733</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.11100105379119</v>
+        <v>35.75094196978976</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.98761939807281</v>
+        <v>20.63716289012601</v>
       </c>
       <c r="L2">
-        <v>5.292284770036074</v>
+        <v>9.253837271770223</v>
       </c>
       <c r="M2">
-        <v>16.97770750142073</v>
+        <v>20.45957516007954</v>
       </c>
       <c r="N2">
-        <v>13.25966595283543</v>
+        <v>20.60365822414531</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.261002158967187</v>
+        <v>6.957063275051402</v>
       </c>
       <c r="D3">
-        <v>5.060442699737655</v>
+        <v>8.364677499272123</v>
       </c>
       <c r="E3">
-        <v>6.486196795101106</v>
+        <v>10.91201797578635</v>
       </c>
       <c r="F3">
-        <v>33.07277456482898</v>
+        <v>41.44953793057156</v>
       </c>
       <c r="G3">
-        <v>2.111920235027386</v>
+        <v>3.733962820756238</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.37880204776384</v>
+        <v>35.73973347207001</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.61951697925133</v>
+        <v>20.32930343580639</v>
       </c>
       <c r="L3">
-        <v>5.322448086301447</v>
+        <v>9.275345362419166</v>
       </c>
       <c r="M3">
-        <v>16.15198087047631</v>
+        <v>20.35025438267667</v>
       </c>
       <c r="N3">
-        <v>13.55291270771823</v>
+        <v>20.68047000147437</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.182536613170278</v>
+        <v>6.954503110190878</v>
       </c>
       <c r="D4">
-        <v>5.134555601022194</v>
+        <v>8.384967626201686</v>
       </c>
       <c r="E4">
-        <v>6.458311685212316</v>
+        <v>10.92419788562953</v>
       </c>
       <c r="F4">
-        <v>32.35223678851963</v>
+        <v>41.40564890347515</v>
       </c>
       <c r="G4">
-        <v>2.11868020752999</v>
+        <v>3.736437294658621</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.94950016706793</v>
+        <v>35.74196866166558</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.74889032220942</v>
+        <v>20.14350878323259</v>
       </c>
       <c r="L4">
-        <v>5.343051890098658</v>
+        <v>9.289512923223898</v>
       </c>
       <c r="M4">
-        <v>15.6362410068501</v>
+        <v>20.28749680684668</v>
       </c>
       <c r="N4">
-        <v>13.735439702575</v>
+        <v>20.72966090189789</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.150603380734682</v>
+        <v>6.953693045897992</v>
       </c>
       <c r="D5">
-        <v>5.165008885963989</v>
+        <v>8.393448817952228</v>
       </c>
       <c r="E5">
-        <v>6.447778485826432</v>
+        <v>10.92953485701097</v>
       </c>
       <c r="F5">
-        <v>32.06353568369041</v>
+        <v>41.39073568354879</v>
       </c>
       <c r="G5">
-        <v>2.121475185698257</v>
+        <v>3.737476311848971</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.77962947714801</v>
+        <v>35.74516762702646</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.38659241031558</v>
+        <v>20.06870523736269</v>
       </c>
       <c r="L5">
-        <v>5.351958379661252</v>
+        <v>9.295528415392575</v>
       </c>
       <c r="M5">
-        <v>15.42410295646072</v>
+        <v>20.26303980639583</v>
       </c>
       <c r="N5">
-        <v>13.81050266231618</v>
+        <v>20.75021833382243</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.145304497755046</v>
+        <v>6.953572651944779</v>
       </c>
       <c r="D6">
-        <v>5.170081585301785</v>
+        <v>8.394869988775264</v>
       </c>
       <c r="E6">
-        <v>6.446078971505299</v>
+        <v>10.93044361855896</v>
       </c>
       <c r="F6">
-        <v>32.01589936895915</v>
+        <v>41.38843889693027</v>
       </c>
       <c r="G6">
-        <v>2.121941791336992</v>
+        <v>3.737650694428408</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.75172822790559</v>
+        <v>35.74583684768129</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.3259864408442</v>
+        <v>20.0563418743265</v>
       </c>
       <c r="L6">
-        <v>5.353467737157467</v>
+        <v>9.296541914696466</v>
       </c>
       <c r="M6">
-        <v>15.38876619637544</v>
+        <v>20.2590467518976</v>
       </c>
       <c r="N6">
-        <v>13.8230096686416</v>
+        <v>20.75366283877761</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.182105732268148</v>
+        <v>6.954491239661125</v>
       </c>
       <c r="D7">
-        <v>5.13496525135355</v>
+        <v>8.385081143906007</v>
       </c>
       <c r="E7">
-        <v>6.458166297646674</v>
+        <v>10.92426834938479</v>
       </c>
       <c r="F7">
-        <v>32.34832310820566</v>
+        <v>41.40543574309999</v>
       </c>
       <c r="G7">
-        <v>2.118717735412162</v>
+        <v>3.736451182957266</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.94718872353906</v>
+        <v>35.74200254682084</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.7440343539656</v>
+        <v>20.142496148483</v>
       </c>
       <c r="L7">
-        <v>5.343169957249108</v>
+        <v>9.289593069599986</v>
       </c>
       <c r="M7">
-        <v>15.63338767918597</v>
+        <v>20.28716242326237</v>
       </c>
       <c r="N7">
-        <v>13.73644919093318</v>
+        <v>20.72993607235497</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.344778202740722</v>
+        <v>6.960589334345663</v>
       </c>
       <c r="D8">
-        <v>4.982142759328544</v>
+        <v>8.343751246966677</v>
       </c>
       <c r="E8">
-        <v>6.518851209705525</v>
+        <v>10.90029778705306</v>
       </c>
       <c r="F8">
-        <v>33.85803958545557</v>
+        <v>41.50652075692855</v>
       </c>
       <c r="G8">
-        <v>2.104837053676086</v>
+        <v>3.731426760030707</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.85431684262557</v>
+        <v>35.74518272782368</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21.5223381757967</v>
+        <v>20.53040037445565</v>
       </c>
       <c r="L8">
-        <v>5.302244127114228</v>
+        <v>9.261053891223584</v>
       </c>
       <c r="M8">
-        <v>16.69493313264099</v>
+        <v>20.42098735949875</v>
       </c>
       <c r="N8">
-        <v>13.3603016956463</v>
+        <v>20.62972303664133</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.662690037904558</v>
+        <v>6.97982033080973</v>
       </c>
       <c r="D9">
-        <v>4.688270919558546</v>
+        <v>8.269357701692959</v>
       </c>
       <c r="E9">
-        <v>6.665723290855165</v>
+        <v>10.86507861437645</v>
       </c>
       <c r="F9">
-        <v>36.96383730633541</v>
+        <v>41.79809932806823</v>
       </c>
       <c r="G9">
-        <v>2.078677425751239</v>
+        <v>3.722531933111358</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.79547169540771</v>
+        <v>35.82389875715778</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>25.07698951052392</v>
+        <v>21.31243877325786</v>
       </c>
       <c r="L9">
-        <v>5.23919457263889</v>
+        <v>9.212703669309018</v>
       </c>
       <c r="M9">
-        <v>18.69973755585149</v>
+        <v>20.71713238427851</v>
       </c>
       <c r="N9">
-        <v>12.63936367941085</v>
+        <v>20.44921674725267</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.894126917412605</v>
+        <v>6.998309298395718</v>
       </c>
       <c r="D10">
-        <v>4.474005421956449</v>
+        <v>8.218706148315635</v>
       </c>
       <c r="E10">
-        <v>6.792068774540424</v>
+        <v>10.84638796417304</v>
       </c>
       <c r="F10">
-        <v>39.33095853447151</v>
+        <v>42.06861540937015</v>
       </c>
       <c r="G10">
-        <v>2.059905536143926</v>
+        <v>3.716573465837541</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.32393740800149</v>
+        <v>35.92601459287949</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>27.53210963352986</v>
+        <v>21.89428003488826</v>
       </c>
       <c r="L10">
-        <v>5.204404544744124</v>
+        <v>9.181803913142366</v>
       </c>
       <c r="M10">
-        <v>20.20599437075105</v>
+        <v>20.95392410615182</v>
       </c>
       <c r="N10">
-        <v>12.1154302806452</v>
+        <v>20.32624317830462</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.998739389313635</v>
+        <v>7.007649517288478</v>
       </c>
       <c r="D11">
-        <v>4.376440844641915</v>
+        <v>8.19652221715484</v>
       </c>
       <c r="E11">
-        <v>6.853897665036597</v>
+        <v>10.83944448108871</v>
       </c>
       <c r="F11">
-        <v>40.42698298870513</v>
+        <v>42.20370514779768</v>
       </c>
       <c r="G11">
-        <v>2.051412041661366</v>
+        <v>3.713986398502107</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.04281714384221</v>
+        <v>35.9820730403685</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>28.60483911269284</v>
+        <v>22.15935729822012</v>
       </c>
       <c r="L11">
-        <v>5.191347535883032</v>
+        <v>9.168746723946992</v>
       </c>
       <c r="M11">
-        <v>20.99291716933183</v>
+        <v>21.06550600536441</v>
       </c>
       <c r="N11">
-        <v>11.87724312880455</v>
+        <v>20.27236853205498</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.038246819538463</v>
+        <v>7.011318401043123</v>
       </c>
       <c r="D12">
-        <v>4.339443491602625</v>
+        <v>8.188244261385577</v>
       </c>
       <c r="E12">
-        <v>6.877968734411525</v>
+        <v>10.83703920701365</v>
       </c>
       <c r="F12">
-        <v>40.84494006043628</v>
+        <v>42.25656816425465</v>
       </c>
       <c r="G12">
-        <v>2.048197516349031</v>
+        <v>3.713024375028465</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.31859380122385</v>
+        <v>36.0046781782039</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>29.00501073132442</v>
+        <v>22.25969481509762</v>
       </c>
       <c r="L12">
-        <v>5.186826793488475</v>
+        <v>9.163945708082849</v>
       </c>
       <c r="M12">
-        <v>21.28643694194251</v>
+        <v>21.10828671855894</v>
       </c>
       <c r="N12">
-        <v>11.78697141197501</v>
+        <v>20.2522629353593</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.029743054467041</v>
+        <v>7.01052240128698</v>
       </c>
       <c r="D13">
-        <v>4.347414458378676</v>
+        <v>8.190021625232893</v>
       </c>
       <c r="E13">
-        <v>6.872754795793965</v>
+        <v>10.83754726228036</v>
       </c>
       <c r="F13">
-        <v>40.75479231196119</v>
+        <v>42.24510761881842</v>
       </c>
       <c r="G13">
-        <v>2.048889826560209</v>
+        <v>3.713230781106789</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.25903914953184</v>
+        <v>35.99974859903617</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>28.9190904643086</v>
+        <v>22.23808871276523</v>
       </c>
       <c r="L13">
-        <v>5.187781135312978</v>
+        <v>9.164973316079431</v>
       </c>
       <c r="M13">
-        <v>21.22341720560551</v>
+        <v>21.0990501500786</v>
       </c>
       <c r="N13">
-        <v>11.80641803580225</v>
+        <v>20.25657991576139</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.001991874635073</v>
+        <v>7.007948724336092</v>
       </c>
       <c r="D14">
-        <v>4.373398311263838</v>
+        <v>8.195838731425548</v>
       </c>
       <c r="E14">
-        <v>6.855864627412657</v>
+        <v>10.83924210775691</v>
       </c>
       <c r="F14">
-        <v>40.46130888733309</v>
+        <v>42.20802013969855</v>
       </c>
       <c r="G14">
-        <v>2.05114757503161</v>
+        <v>3.713906899304641</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.06543311925715</v>
+        <v>35.9839052112986</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>28.63788084682495</v>
+        <v>22.1676135096268</v>
       </c>
       <c r="L14">
-        <v>5.190966964065276</v>
+        <v>9.168348867689017</v>
       </c>
       <c r="M14">
-        <v>21.01715344542033</v>
+        <v>21.0690152042164</v>
       </c>
       <c r="N14">
-        <v>11.86981851935665</v>
+        <v>20.27070851823889</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.984979319741832</v>
+        <v>7.006389403584691</v>
       </c>
       <c r="D15">
-        <v>4.389306272509829</v>
+        <v>8.19941782405076</v>
       </c>
       <c r="E15">
-        <v>6.845605584820119</v>
+        <v>10.84030942650806</v>
       </c>
       <c r="F15">
-        <v>40.28192785684499</v>
+        <v>42.1855246295321</v>
       </c>
       <c r="G15">
-        <v>2.052530588518353</v>
+        <v>3.714323335517668</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.94731228769614</v>
+        <v>35.97437985345945</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>28.4648536750151</v>
+        <v>22.12443714500295</v>
       </c>
       <c r="L15">
-        <v>5.192974357399209</v>
+        <v>9.170435166152673</v>
       </c>
       <c r="M15">
-        <v>20.8902357846935</v>
+        <v>21.05068570803654</v>
       </c>
       <c r="N15">
-        <v>11.9086402924485</v>
+        <v>20.27940113831325</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.887275717094482</v>
+        <v>6.997717452552862</v>
       </c>
       <c r="D16">
-        <v>4.480376366760241</v>
+        <v>8.220173118050596</v>
       </c>
       <c r="E16">
-        <v>6.788118350113814</v>
+        <v>10.8468730995583</v>
       </c>
       <c r="F16">
-        <v>39.25972829306187</v>
+        <v>42.06002720874146</v>
       </c>
       <c r="G16">
-        <v>2.060461131489958</v>
+        <v>3.716745011711378</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.27744391444752</v>
+        <v>35.92254400409373</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>27.46114097322084</v>
+        <v>21.87695608950102</v>
       </c>
       <c r="L16">
-        <v>5.205315682053553</v>
+        <v>9.182677318728054</v>
       </c>
       <c r="M16">
-        <v>20.1539287361159</v>
+        <v>20.9467073012599</v>
       </c>
       <c r="N16">
-        <v>12.13099130936394</v>
+        <v>20.32980546074249</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.827156713722283</v>
+        <v>6.992634367937507</v>
       </c>
       <c r="D17">
-        <v>4.53619407597895</v>
+        <v>8.233124985226883</v>
       </c>
       <c r="E17">
-        <v>6.753988357584715</v>
+        <v>10.8512989295541</v>
       </c>
       <c r="F17">
-        <v>38.63764182776511</v>
+        <v>41.9861048891383</v>
       </c>
       <c r="G17">
-        <v>2.065334781502825</v>
+        <v>3.718262175274033</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.87263755562134</v>
+        <v>35.89320209473446</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>26.83429562527124</v>
+        <v>21.72516476178076</v>
       </c>
       <c r="L17">
-        <v>5.213613122040227</v>
+        <v>9.190443249632214</v>
       </c>
       <c r="M17">
-        <v>19.71115544996505</v>
+        <v>20.88388958870723</v>
       </c>
       <c r="N17">
-        <v>12.26736888450216</v>
+        <v>20.3612550426637</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.792515136762159</v>
+        <v>6.989798309315823</v>
       </c>
       <c r="D18">
-        <v>4.568292478224952</v>
+        <v>8.240655331584081</v>
       </c>
       <c r="E18">
-        <v>6.734765389779761</v>
+        <v>10.85399129809954</v>
       </c>
       <c r="F18">
-        <v>38.28162751765994</v>
+        <v>41.94472065232803</v>
       </c>
       <c r="G18">
-        <v>2.068142622376828</v>
+        <v>3.719146435813644</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.64200968980432</v>
+        <v>35.87722987427549</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>26.46957845093247</v>
+        <v>21.6379012722197</v>
       </c>
       <c r="L18">
-        <v>5.218644543973547</v>
+        <v>9.195004076928011</v>
       </c>
       <c r="M18">
-        <v>19.49927213536512</v>
+        <v>20.84812399224832</v>
       </c>
       <c r="N18">
-        <v>12.34583035073282</v>
+        <v>20.37953862916246</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.780775749600027</v>
+        <v>6.988853164172652</v>
       </c>
       <c r="D19">
-        <v>4.579160475881111</v>
+        <v>8.243218872674991</v>
       </c>
       <c r="E19">
-        <v>6.728325936895279</v>
+        <v>10.85492809463058</v>
       </c>
       <c r="F19">
-        <v>38.16139205110532</v>
+        <v>41.9309040494288</v>
       </c>
       <c r="G19">
-        <v>2.069094244307932</v>
+        <v>3.719447831807551</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.56429788636438</v>
+        <v>35.87197739977505</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>26.34536645368517</v>
+        <v>21.60836575800984</v>
       </c>
       <c r="L19">
-        <v>5.220391844810158</v>
+        <v>9.196564458403067</v>
       </c>
       <c r="M19">
-        <v>19.42733755779454</v>
+        <v>20.83607800431925</v>
       </c>
       <c r="N19">
-        <v>12.37240244212368</v>
+        <v>20.38576261280756</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.833563072611691</v>
+        <v>6.993166417111284</v>
       </c>
       <c r="D20">
-        <v>4.530253127361421</v>
+        <v>8.231737882201132</v>
       </c>
       <c r="E20">
-        <v>6.757579139663209</v>
+        <v>10.85081260518094</v>
       </c>
       <c r="F20">
-        <v>38.70367757530939</v>
+        <v>41.99385684264372</v>
       </c>
       <c r="G20">
-        <v>2.064815525285816</v>
+        <v>3.71809946796217</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.91550056607489</v>
+        <v>35.89623200725283</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>26.90145417258174</v>
+        <v>21.74131949230777</v>
       </c>
       <c r="L20">
-        <v>5.212702869706688</v>
+        <v>9.189606818942607</v>
       </c>
       <c r="M20">
-        <v>19.75027784990315</v>
+        <v>20.8905390186651</v>
       </c>
       <c r="N20">
-        <v>12.25284979634471</v>
+        <v>20.35788705044196</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.010146029493536</v>
+        <v>7.008701108817084</v>
       </c>
       <c r="D21">
-        <v>4.365767939925759</v>
+        <v>8.194126784238236</v>
       </c>
       <c r="E21">
-        <v>6.86080755447349</v>
+        <v>10.83873821035298</v>
       </c>
       <c r="F21">
-        <v>40.54743121747889</v>
+        <v>42.21886748582779</v>
       </c>
       <c r="G21">
-        <v>2.050484412980086</v>
+        <v>3.713707829070884</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.12220190452227</v>
+        <v>35.9885214683711</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>28.72064051328173</v>
+        <v>22.18831567912029</v>
       </c>
       <c r="L21">
-        <v>5.19001949267045</v>
+        <v>9.167353494781755</v>
       </c>
       <c r="M21">
-        <v>21.07785753620615</v>
+        <v>21.07782312384259</v>
       </c>
       <c r="N21">
-        <v>11.85119912487703</v>
+        <v>20.26655059656878</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.124928744832294</v>
+        <v>7.019622145536583</v>
       </c>
       <c r="D22">
-        <v>4.25794709648072</v>
+        <v>8.170260135664417</v>
       </c>
       <c r="E22">
-        <v>6.932125199456434</v>
+        <v>10.83215288257432</v>
       </c>
       <c r="F22">
-        <v>41.76957431117479</v>
+        <v>42.37586478848563</v>
       </c>
       <c r="G22">
-        <v>2.041125841387195</v>
+        <v>3.710940423133108</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.93167729601142</v>
+        <v>36.05686115731304</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>29.87449884780584</v>
+        <v>22.48016836896066</v>
       </c>
       <c r="L22">
-        <v>5.177678138438223</v>
+        <v>9.153645740943514</v>
       </c>
       <c r="M22">
-        <v>21.92413585604163</v>
+        <v>21.20328238988622</v>
       </c>
       <c r="N22">
-        <v>11.58820632396812</v>
+        <v>20.20857896526065</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.063726133080745</v>
+        <v>7.013723681689575</v>
       </c>
       <c r="D23">
-        <v>4.315535354406276</v>
+        <v>8.182933086185397</v>
       </c>
       <c r="E23">
-        <v>6.893697643099565</v>
+        <v>10.83554814370934</v>
       </c>
       <c r="F23">
-        <v>41.11564777290025</v>
+        <v>42.29117109860072</v>
       </c>
       <c r="G23">
-        <v>2.046121754004654</v>
+        <v>3.712408071909064</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.49766996270963</v>
+        <v>36.01965468467814</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>29.26176518310966</v>
+        <v>22.32445883877879</v>
       </c>
       <c r="L23">
-        <v>5.184028471789158</v>
+        <v>9.160885401836149</v>
       </c>
       <c r="M23">
-        <v>21.47475339414246</v>
+        <v>21.13605226531048</v>
       </c>
       <c r="N23">
-        <v>11.72864983401911</v>
+        <v>20.23936248289766</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.830667000930934</v>
+        <v>6.992925608825293</v>
       </c>
       <c r="D24">
-        <v>4.532939002263395</v>
+        <v>8.232364729330945</v>
       </c>
       <c r="E24">
-        <v>6.755954507197226</v>
+        <v>10.8510320117467</v>
       </c>
       <c r="F24">
-        <v>38.67381774246071</v>
+        <v>41.99034871078391</v>
       </c>
       <c r="G24">
-        <v>2.065050262242899</v>
+        <v>3.718172990479705</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.89611566732837</v>
+        <v>35.89485939006438</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>26.87110531914091</v>
+        <v>21.73401592066361</v>
       </c>
       <c r="L24">
-        <v>5.213113583364846</v>
+        <v>9.189984669939973</v>
       </c>
       <c r="M24">
-        <v>19.73259443967414</v>
+        <v>20.88753172172124</v>
       </c>
       <c r="N24">
-        <v>12.25941369386242</v>
+        <v>20.35940908791704</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.576971820384943</v>
+        <v>6.973846459853822</v>
       </c>
       <c r="D25">
-        <v>4.767338156883539</v>
+        <v>8.288776057794129</v>
       </c>
       <c r="E25">
-        <v>6.622862167825018</v>
+        <v>10.87334439962501</v>
       </c>
       <c r="F25">
-        <v>36.10862734531955</v>
+        <v>41.7092763457697</v>
       </c>
       <c r="G25">
-        <v>2.085660011281656</v>
+        <v>3.724836429557966</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.25269741055494</v>
+        <v>35.79482803501289</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>24.13197348735773</v>
+        <v>21.09918589062336</v>
       </c>
       <c r="L25">
-        <v>5.254308193572367</v>
+        <v>9.224970447881827</v>
       </c>
       <c r="M25">
-        <v>18.16647280330063</v>
+        <v>20.63354065474708</v>
       </c>
       <c r="N25">
-        <v>12.83304610394821</v>
+        <v>20.49634644823529</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_188/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.962736285065886</v>
+        <v>4.388845100513924</v>
       </c>
       <c r="D2">
-        <v>8.333005155668802</v>
+        <v>4.941195403965814</v>
       </c>
       <c r="E2">
-        <v>10.89460059637521</v>
+        <v>6.537128500808173</v>
       </c>
       <c r="F2">
-        <v>41.54024229733263</v>
+        <v>34.2771603291154</v>
       </c>
       <c r="G2">
-        <v>3.730130508428733</v>
+        <v>2.101154495814589</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.75094196978976</v>
+        <v>27.11100105379109</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.63716289012601</v>
+        <v>21.9876193980728</v>
       </c>
       <c r="L2">
-        <v>9.253837271770223</v>
+        <v>5.292284770036102</v>
       </c>
       <c r="M2">
-        <v>20.45957516007954</v>
+        <v>16.97770750142072</v>
       </c>
       <c r="N2">
-        <v>20.60365822414531</v>
+        <v>13.2596659528354</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.957063275051402</v>
+        <v>4.261002158967256</v>
       </c>
       <c r="D3">
-        <v>8.364677499272123</v>
+        <v>5.060442699737662</v>
       </c>
       <c r="E3">
-        <v>10.91201797578635</v>
+        <v>6.486196795101103</v>
       </c>
       <c r="F3">
-        <v>41.44953793057156</v>
+        <v>33.072774564829</v>
       </c>
       <c r="G3">
-        <v>3.733962820756238</v>
+        <v>2.11192023502725</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>35.73973347207001</v>
+        <v>26.37880204776387</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.32930343580639</v>
+        <v>20.61951697925134</v>
       </c>
       <c r="L3">
-        <v>9.275345362419166</v>
+        <v>5.322448086301479</v>
       </c>
       <c r="M3">
-        <v>20.35025438267667</v>
+        <v>16.15198087047633</v>
       </c>
       <c r="N3">
-        <v>20.68047000147437</v>
+        <v>13.55291270771823</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.954503110190878</v>
+        <v>4.182536613170193</v>
       </c>
       <c r="D4">
-        <v>8.384967626201686</v>
+        <v>5.13455560102219</v>
       </c>
       <c r="E4">
-        <v>10.92419788562953</v>
+        <v>6.458311685212252</v>
       </c>
       <c r="F4">
-        <v>41.40564890347515</v>
+        <v>32.35223678851955</v>
       </c>
       <c r="G4">
-        <v>3.736437294658621</v>
+        <v>2.118680207529856</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>35.74196866166558</v>
+        <v>25.94950016706785</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.14350878323259</v>
+        <v>19.7488903222094</v>
       </c>
       <c r="L4">
-        <v>9.289512923223898</v>
+        <v>5.343051890098713</v>
       </c>
       <c r="M4">
-        <v>20.28749680684668</v>
+        <v>15.63624100685007</v>
       </c>
       <c r="N4">
-        <v>20.72966090189789</v>
+        <v>13.73543970257493</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.953693045897992</v>
+        <v>4.150603380734867</v>
       </c>
       <c r="D5">
-        <v>8.393448817952228</v>
+        <v>5.165008885963926</v>
       </c>
       <c r="E5">
-        <v>10.92953485701097</v>
+        <v>6.447778485826496</v>
       </c>
       <c r="F5">
-        <v>41.39073568354879</v>
+        <v>32.06353568369039</v>
       </c>
       <c r="G5">
-        <v>3.737476311848971</v>
+        <v>2.121475185698258</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.74516762702646</v>
+        <v>25.77962947714805</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.06870523736269</v>
+        <v>19.38659241031555</v>
       </c>
       <c r="L5">
-        <v>9.295528415392575</v>
+        <v>5.351958379661196</v>
       </c>
       <c r="M5">
-        <v>20.26303980639583</v>
+        <v>15.42410295646071</v>
       </c>
       <c r="N5">
-        <v>20.75021833382243</v>
+        <v>13.81050266231619</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.953572651944779</v>
+        <v>4.145304497755217</v>
       </c>
       <c r="D6">
-        <v>8.394869988775264</v>
+        <v>5.170081585301718</v>
       </c>
       <c r="E6">
-        <v>10.93044361855896</v>
+        <v>6.446078971505295</v>
       </c>
       <c r="F6">
-        <v>41.38843889693027</v>
+        <v>32.01589936895905</v>
       </c>
       <c r="G6">
-        <v>3.737650694428408</v>
+        <v>2.121941791337126</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>35.74583684768129</v>
+        <v>25.75172822790558</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.0563418743265</v>
+        <v>19.3259864408442</v>
       </c>
       <c r="L6">
-        <v>9.296541914696466</v>
+        <v>5.353467737157406</v>
       </c>
       <c r="M6">
-        <v>20.2590467518976</v>
+        <v>15.38876619637542</v>
       </c>
       <c r="N6">
-        <v>20.75366283877761</v>
+        <v>13.8230096686416</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.954491239661125</v>
+        <v>4.182105732268004</v>
       </c>
       <c r="D7">
-        <v>8.385081143906007</v>
+        <v>5.13496525135362</v>
       </c>
       <c r="E7">
-        <v>10.92426834938479</v>
+        <v>6.458166297646574</v>
       </c>
       <c r="F7">
-        <v>41.40543574309999</v>
+        <v>32.34832310820547</v>
       </c>
       <c r="G7">
-        <v>3.736451182957266</v>
+        <v>2.118717735412161</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>35.74200254682084</v>
+        <v>25.9471887235389</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.142496148483</v>
+        <v>19.74403435396558</v>
       </c>
       <c r="L7">
-        <v>9.289593069599986</v>
+        <v>5.343169957249107</v>
       </c>
       <c r="M7">
-        <v>20.28716242326237</v>
+        <v>15.6333876791859</v>
       </c>
       <c r="N7">
-        <v>20.72993607235497</v>
+        <v>13.73644919093312</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.960589334345663</v>
+        <v>4.344778202740716</v>
       </c>
       <c r="D8">
-        <v>8.343751246966677</v>
+        <v>4.982142759328221</v>
       </c>
       <c r="E8">
-        <v>10.90029778705306</v>
+        <v>6.518851209705626</v>
       </c>
       <c r="F8">
-        <v>41.50652075692855</v>
+        <v>33.85803958545542</v>
       </c>
       <c r="G8">
-        <v>3.731426760030707</v>
+        <v>2.104837053676084</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.74518272782368</v>
+        <v>26.8543168426254</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.53040037445565</v>
+        <v>21.52233817579669</v>
       </c>
       <c r="L8">
-        <v>9.261053891223584</v>
+        <v>5.302244127114257</v>
       </c>
       <c r="M8">
-        <v>20.42098735949875</v>
+        <v>16.69493313264094</v>
       </c>
       <c r="N8">
-        <v>20.62972303664133</v>
+        <v>13.36030169564627</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.97982033080973</v>
+        <v>4.662690037904677</v>
       </c>
       <c r="D9">
-        <v>8.269357701692959</v>
+        <v>4.6882709195588</v>
       </c>
       <c r="E9">
-        <v>10.86507861437645</v>
+        <v>6.665723290855206</v>
       </c>
       <c r="F9">
-        <v>41.79809932806823</v>
+        <v>36.96383730633537</v>
       </c>
       <c r="G9">
-        <v>3.722531933111358</v>
+        <v>2.078677425750969</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.82389875715778</v>
+        <v>28.79547169540774</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.31243877325786</v>
+        <v>25.07698951052389</v>
       </c>
       <c r="L9">
-        <v>9.212703669309018</v>
+        <v>5.239194572638831</v>
       </c>
       <c r="M9">
-        <v>20.71713238427851</v>
+        <v>18.6997375558515</v>
       </c>
       <c r="N9">
-        <v>20.44921674725267</v>
+        <v>12.63936367941084</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.998309298395718</v>
+        <v>4.894126917412541</v>
       </c>
       <c r="D10">
-        <v>8.218706148315635</v>
+        <v>4.474005421956706</v>
       </c>
       <c r="E10">
-        <v>10.84638796417304</v>
+        <v>6.792068774540411</v>
       </c>
       <c r="F10">
-        <v>42.06861540937015</v>
+        <v>39.33095853447151</v>
       </c>
       <c r="G10">
-        <v>3.716573465837541</v>
+        <v>2.059905536143533</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.92601459287949</v>
+        <v>30.32393740800153</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.89428003488826</v>
+        <v>27.53210963352976</v>
       </c>
       <c r="L10">
-        <v>9.181803913142366</v>
+        <v>5.204404544744119</v>
       </c>
       <c r="M10">
-        <v>20.95392410615182</v>
+        <v>20.20599437075099</v>
       </c>
       <c r="N10">
-        <v>20.32624317830462</v>
+        <v>12.11543028064529</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.007649517288478</v>
+        <v>4.998739389313587</v>
       </c>
       <c r="D11">
-        <v>8.19652221715484</v>
+        <v>4.376440844641983</v>
       </c>
       <c r="E11">
-        <v>10.83944448108871</v>
+        <v>6.85389766503657</v>
       </c>
       <c r="F11">
-        <v>42.20370514779768</v>
+        <v>40.42698298870512</v>
       </c>
       <c r="G11">
-        <v>3.713986398502107</v>
+        <v>2.051412041661765</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.9820730403685</v>
+        <v>31.04281714384218</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.15935729822012</v>
+        <v>28.60483911269288</v>
       </c>
       <c r="L11">
-        <v>9.168746723946992</v>
+        <v>5.19134753588304</v>
       </c>
       <c r="M11">
-        <v>21.06550600536441</v>
+        <v>20.99291716933189</v>
       </c>
       <c r="N11">
-        <v>20.27236853205498</v>
+        <v>11.87724312880455</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.011318401043123</v>
+        <v>5.038246819538431</v>
       </c>
       <c r="D12">
-        <v>8.188244261385577</v>
+        <v>4.339443491602682</v>
       </c>
       <c r="E12">
-        <v>10.83703920701365</v>
+        <v>6.877968734411437</v>
       </c>
       <c r="F12">
-        <v>42.25656816425465</v>
+        <v>40.84494006043629</v>
       </c>
       <c r="G12">
-        <v>3.713024375028465</v>
+        <v>2.048197516349163</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>36.0046781782039</v>
+        <v>31.31859380122389</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.25969481509762</v>
+        <v>29.00501073132435</v>
       </c>
       <c r="L12">
-        <v>9.163945708082849</v>
+        <v>5.186826793488468</v>
       </c>
       <c r="M12">
-        <v>21.10828671855894</v>
+        <v>21.28643694194248</v>
       </c>
       <c r="N12">
-        <v>20.2522629353593</v>
+        <v>11.78697141197507</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.01052240128698</v>
+        <v>5.029743054467072</v>
       </c>
       <c r="D13">
-        <v>8.190021625232893</v>
+        <v>4.347414458378752</v>
       </c>
       <c r="E13">
-        <v>10.83754726228036</v>
+        <v>6.872754795793972</v>
       </c>
       <c r="F13">
-        <v>42.24510761881842</v>
+        <v>40.75479231196111</v>
       </c>
       <c r="G13">
-        <v>3.713230781106789</v>
+        <v>2.048889826560608</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.99974859903617</v>
+        <v>31.25903914953177</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.23808871276523</v>
+        <v>28.91909046430874</v>
       </c>
       <c r="L13">
-        <v>9.164973316079431</v>
+        <v>5.187781135312989</v>
       </c>
       <c r="M13">
-        <v>21.0990501500786</v>
+        <v>21.2234172056056</v>
       </c>
       <c r="N13">
-        <v>20.25657991576139</v>
+        <v>11.80641803580209</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.007948724336092</v>
+        <v>5.001991874635025</v>
       </c>
       <c r="D14">
-        <v>8.195838731425548</v>
+        <v>4.373398311263847</v>
       </c>
       <c r="E14">
-        <v>10.83924210775691</v>
+        <v>6.855864627412698</v>
       </c>
       <c r="F14">
-        <v>42.20802013969855</v>
+        <v>40.46130888733314</v>
       </c>
       <c r="G14">
-        <v>3.713906899304641</v>
+        <v>2.051147575031611</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.9839052112986</v>
+        <v>31.06543311925713</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.1676135096268</v>
+        <v>28.63788084682505</v>
       </c>
       <c r="L14">
-        <v>9.168348867689017</v>
+        <v>5.190966964065376</v>
       </c>
       <c r="M14">
-        <v>21.0690152042164</v>
+        <v>21.01715344542038</v>
       </c>
       <c r="N14">
-        <v>20.27070851823889</v>
+        <v>11.8698185193566</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.006389403584691</v>
+        <v>4.984979319741881</v>
       </c>
       <c r="D15">
-        <v>8.19941782405076</v>
+        <v>4.389306272509839</v>
       </c>
       <c r="E15">
-        <v>10.84030942650806</v>
+        <v>6.845605584820112</v>
       </c>
       <c r="F15">
-        <v>42.1855246295321</v>
+        <v>40.28192785684499</v>
       </c>
       <c r="G15">
-        <v>3.714323335517668</v>
+        <v>2.052530588518353</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.97437985345945</v>
+        <v>30.94731228769613</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.12443714500295</v>
+        <v>28.46485367501518</v>
       </c>
       <c r="L15">
-        <v>9.170435166152673</v>
+        <v>5.192974357399152</v>
       </c>
       <c r="M15">
-        <v>21.05068570803654</v>
+        <v>20.89023578469355</v>
       </c>
       <c r="N15">
-        <v>20.27940113831325</v>
+        <v>11.90864029244847</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.997717452552862</v>
+        <v>4.887275717094387</v>
       </c>
       <c r="D16">
-        <v>8.220173118050596</v>
+        <v>4.480376366760254</v>
       </c>
       <c r="E16">
-        <v>10.8468730995583</v>
+        <v>6.788118350113716</v>
       </c>
       <c r="F16">
-        <v>42.06002720874146</v>
+        <v>39.25972829306197</v>
       </c>
       <c r="G16">
-        <v>3.716745011711378</v>
+        <v>2.060461131489689</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.92254400409373</v>
+        <v>30.2774439144476</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.87695608950102</v>
+        <v>27.46114097322094</v>
       </c>
       <c r="L16">
-        <v>9.182677318728054</v>
+        <v>5.205315682053524</v>
       </c>
       <c r="M16">
-        <v>20.9467073012599</v>
+        <v>20.15392873611598</v>
       </c>
       <c r="N16">
-        <v>20.32980546074249</v>
+        <v>12.13099130936392</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.992634367937507</v>
+        <v>4.82715671372223</v>
       </c>
       <c r="D17">
-        <v>8.233124985226883</v>
+        <v>4.536194075979262</v>
       </c>
       <c r="E17">
-        <v>10.8512989295541</v>
+        <v>6.753988357584671</v>
       </c>
       <c r="F17">
-        <v>41.9861048891383</v>
+        <v>38.63764182776511</v>
       </c>
       <c r="G17">
-        <v>3.718262175274033</v>
+        <v>2.065334781502571</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.89320209473446</v>
+        <v>29.87263755562139</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.72516476178076</v>
+        <v>26.83429562527115</v>
       </c>
       <c r="L17">
-        <v>9.190443249632214</v>
+        <v>5.213613122040215</v>
       </c>
       <c r="M17">
-        <v>20.88388958870723</v>
+        <v>19.71115544996504</v>
       </c>
       <c r="N17">
-        <v>20.3612550426637</v>
+        <v>12.26736888450222</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.989798309315823</v>
+        <v>4.792515136762129</v>
       </c>
       <c r="D18">
-        <v>8.240655331584081</v>
+        <v>4.568292478224958</v>
       </c>
       <c r="E18">
-        <v>10.85399129809954</v>
+        <v>6.734765389779754</v>
       </c>
       <c r="F18">
-        <v>41.94472065232803</v>
+        <v>38.28162751765996</v>
       </c>
       <c r="G18">
-        <v>3.719146435813644</v>
+        <v>2.068142622377099</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.87722987427549</v>
+        <v>29.64200968980432</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.6379012722197</v>
+        <v>26.4695784509325</v>
       </c>
       <c r="L18">
-        <v>9.195004076928011</v>
+        <v>5.218644543973561</v>
       </c>
       <c r="M18">
-        <v>20.84812399224832</v>
+        <v>19.49927213536511</v>
       </c>
       <c r="N18">
-        <v>20.37953862916246</v>
+        <v>12.34583035073276</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.988853164172652</v>
+        <v>4.780775749599738</v>
       </c>
       <c r="D19">
-        <v>8.243218872674991</v>
+        <v>4.579160475881296</v>
       </c>
       <c r="E19">
-        <v>10.85492809463058</v>
+        <v>6.728325936895133</v>
       </c>
       <c r="F19">
-        <v>41.9309040494288</v>
+        <v>38.16139205110532</v>
       </c>
       <c r="G19">
-        <v>3.719447831807551</v>
+        <v>2.069094244307801</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.87197739977505</v>
+        <v>29.56429788636435</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.60836575800984</v>
+        <v>26.34536645368518</v>
       </c>
       <c r="L19">
-        <v>9.196564458403067</v>
+        <v>5.22039184481018</v>
       </c>
       <c r="M19">
-        <v>20.83607800431925</v>
+        <v>19.42733755779452</v>
       </c>
       <c r="N19">
-        <v>20.38576261280756</v>
+        <v>12.37240244212368</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.993166417111284</v>
+        <v>4.833563072611786</v>
       </c>
       <c r="D20">
-        <v>8.231737882201132</v>
+        <v>4.530253127361231</v>
       </c>
       <c r="E20">
-        <v>10.85081260518094</v>
+        <v>6.757579139663338</v>
       </c>
       <c r="F20">
-        <v>41.99385684264372</v>
+        <v>38.70367757530931</v>
       </c>
       <c r="G20">
-        <v>3.71809946796217</v>
+        <v>2.064815525285677</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.89623200725283</v>
+        <v>29.91550056607482</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.74131949230777</v>
+        <v>26.90145417258183</v>
       </c>
       <c r="L20">
-        <v>9.189606818942607</v>
+        <v>5.212702869706731</v>
       </c>
       <c r="M20">
-        <v>20.8905390186651</v>
+        <v>19.75027784990314</v>
       </c>
       <c r="N20">
-        <v>20.35788705044196</v>
+        <v>12.25284979634458</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.008701108817084</v>
+        <v>5.01014602949343</v>
       </c>
       <c r="D21">
-        <v>8.194126784238236</v>
+        <v>4.365767939925822</v>
       </c>
       <c r="E21">
-        <v>10.83873821035298</v>
+        <v>6.860807554473366</v>
       </c>
       <c r="F21">
-        <v>42.21886748582779</v>
+        <v>40.54743121747884</v>
       </c>
       <c r="G21">
-        <v>3.713707829070884</v>
+        <v>2.050484412980214</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.9885214683711</v>
+        <v>31.12220190452223</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.18831567912029</v>
+        <v>28.72064051328167</v>
       </c>
       <c r="L21">
-        <v>9.167353494781755</v>
+        <v>5.19001949267034</v>
       </c>
       <c r="M21">
-        <v>21.07782312384259</v>
+        <v>21.07785753620615</v>
       </c>
       <c r="N21">
-        <v>20.26655059656878</v>
+        <v>11.85119912487712</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.019622145536583</v>
+        <v>5.124928744832252</v>
       </c>
       <c r="D22">
-        <v>8.170260135664417</v>
+        <v>4.257947096480907</v>
       </c>
       <c r="E22">
-        <v>10.83215288257432</v>
+        <v>6.93212519945645</v>
       </c>
       <c r="F22">
-        <v>42.37586478848563</v>
+        <v>41.76957431117477</v>
       </c>
       <c r="G22">
-        <v>3.710940423133108</v>
+        <v>2.041125841386789</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.05686115731304</v>
+        <v>31.93167729601143</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.48016836896066</v>
+        <v>29.87449884780582</v>
       </c>
       <c r="L22">
-        <v>9.153645740943514</v>
+        <v>5.177678138438225</v>
       </c>
       <c r="M22">
-        <v>21.20328238988622</v>
+        <v>21.92413585604163</v>
       </c>
       <c r="N22">
-        <v>20.20857896526065</v>
+        <v>11.58820632396809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.013723681689575</v>
+        <v>5.063726133080761</v>
       </c>
       <c r="D23">
-        <v>8.182933086185397</v>
+        <v>4.315535354406327</v>
       </c>
       <c r="E23">
-        <v>10.83554814370934</v>
+        <v>6.893697643099525</v>
       </c>
       <c r="F23">
-        <v>42.29117109860072</v>
+        <v>41.11564777290025</v>
       </c>
       <c r="G23">
-        <v>3.712408071909064</v>
+        <v>2.046121754004651</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.01965468467814</v>
+        <v>31.49766996270961</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.32445883877879</v>
+        <v>29.26176518310971</v>
       </c>
       <c r="L23">
-        <v>9.160885401836149</v>
+        <v>5.184028471789099</v>
       </c>
       <c r="M23">
-        <v>21.13605226531048</v>
+        <v>21.4747533941425</v>
       </c>
       <c r="N23">
-        <v>20.23936248289766</v>
+        <v>11.72864983401901</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.992925608825293</v>
+        <v>4.830667000930988</v>
       </c>
       <c r="D24">
-        <v>8.232364729330945</v>
+        <v>4.532939002263519</v>
       </c>
       <c r="E24">
-        <v>10.8510320117467</v>
+        <v>6.755954507197163</v>
       </c>
       <c r="F24">
-        <v>41.99034871078391</v>
+        <v>38.67381774246073</v>
       </c>
       <c r="G24">
-        <v>3.718172990479705</v>
+        <v>2.06505026224277</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.89485939006438</v>
+        <v>29.89611566732837</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.73401592066361</v>
+        <v>26.87110531914099</v>
       </c>
       <c r="L24">
-        <v>9.189984669939973</v>
+        <v>5.21311358336484</v>
       </c>
       <c r="M24">
-        <v>20.88753172172124</v>
+        <v>19.73259443967412</v>
       </c>
       <c r="N24">
-        <v>20.35940908791704</v>
+        <v>12.25941369386234</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.973846459853822</v>
+        <v>4.576971820384991</v>
       </c>
       <c r="D25">
-        <v>8.288776057794129</v>
+        <v>4.767338156883412</v>
       </c>
       <c r="E25">
-        <v>10.87334439962501</v>
+        <v>6.622862167825014</v>
       </c>
       <c r="F25">
-        <v>41.7092763457697</v>
+        <v>36.10862734531953</v>
       </c>
       <c r="G25">
-        <v>3.724836429557966</v>
+        <v>2.085660011281653</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.79482803501289</v>
+        <v>28.25269741055491</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.09918589062336</v>
+        <v>24.13197348735777</v>
       </c>
       <c r="L25">
-        <v>9.224970447881827</v>
+        <v>5.254308193572315</v>
       </c>
       <c r="M25">
-        <v>20.63354065474708</v>
+        <v>18.16647280330062</v>
       </c>
       <c r="N25">
-        <v>20.49634644823529</v>
+        <v>12.83304610394821</v>
       </c>
       <c r="O25">
         <v>0</v>
